--- a/biology/Botanique/Acalypha_mapirensis/Acalypha_mapirensis.xlsx
+++ b/biology/Botanique/Acalypha_mapirensis/Acalypha_mapirensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acalypha mapirensis est une espèce de plantes à fleurs de la famille des Euphorbiaceae. C'est un arbre originaire de Bolivie, de l'Équateur et du Pérou. 
 </t>
@@ -511,11 +523,13 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (28 décembre 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (28 décembre 2013) :
 Acalypha mapirensis Pax (1909)
-Selon Tropicos                                           (28 décembre 2013)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (28 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Acalypha mapirensis var. pubescens Pax &amp; K. Hoffm.
 variété Acalypha mapirensis var. scabra Pax &amp; K. Hoffm.</t>
         </is>
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Repertorium Specierum Novarum Regni Vegetabilis 7: 110. 1909.</t>
         </is>
